--- a/laravel-backend/public/templates/denr.xlsx
+++ b/laravel-backend/public/templates/denr.xlsx
@@ -1,45 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\denr_inv\laravel-backend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F52E95-4D51-4283-A019-487EDFF1A9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB2E6B8-AD37-45A8-B95C-1FEA974F1C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E54F799D-C3C5-4495-98D5-76E9EC028213}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
     <t>PENRO</t>
   </si>
   <si>
+    <t>CENRO</t>
+  </si>
+  <si>
+    <t>TYPE OF ICT EQUIPMENT</t>
+  </si>
+  <si>
+    <t>YEAR ACQUIRED</t>
+  </si>
+  <si>
     <t>SHELF LIFE</t>
-  </si>
-  <si>
-    <t>CENRO</t>
-  </si>
-  <si>
-    <t>TYPE OF ICT EQUIPMENT</t>
-  </si>
-  <si>
-    <t>YEAR ACQUIRED</t>
   </si>
   <si>
     <t>BRAND</t>
@@ -117,9 +115,6 @@
   <si>
     <t>SOFTWARE 6
 AutoCad</t>
-  </si>
-  <si>
-    <t>Regional Office</t>
   </si>
 </sst>
 </file>
@@ -129,28 +124,25 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,6 +177,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -197,17 +200,19 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -240,62 +245,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -350,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -402,7 +397,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -463,331 +458,402 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DD475-5E14-4337-9226-6435395F9B0F}">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="5" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="4" customWidth="1"/>
-    <col min="11" max="22" width="13.42578125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="32.85546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="32.7109375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="4"/>
-    <col min="28" max="28" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="9.140625" style="4"/>
-    <col min="33" max="33" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="22" width="13.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="32.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="32.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5703125" style="1" customWidth="1"/>
+    <col min="30" max="32" width="9.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="25.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="18.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="27.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="35" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
     </row>
-    <row r="2" spans="1:36" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AJ1:AJ2"/>
@@ -804,15 +870,6 @@
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/laravel-backend/public/templates/denr.xlsx
+++ b/laravel-backend/public/templates/denr.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\denr_inv\laravel-backend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\denr_inv\laravel-backend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB2E6B8-AD37-45A8-B95C-1FEA974F1C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2CE18B-6B39-45F9-B49F-6BD772963800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E54F799D-C3C5-4495-98D5-76E9EC028213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
-  <si>
-    <t>Regional Office</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>PENRO</t>
   </si>
   <si>
+    <t>SHELF LIFE</t>
+  </si>
+  <si>
     <t>CENRO</t>
   </si>
   <si>
@@ -35,9 +40,6 @@
   </si>
   <si>
     <t>YEAR ACQUIRED</t>
-  </si>
-  <si>
-    <t>SHELF LIFE</t>
   </si>
   <si>
     <t>BRAND</t>
@@ -63,12 +65,6 @@
     <t>ACCOUNTABLE PERSON</t>
   </si>
   <si>
-    <t>ACCOUNTABLE PERSON as of 2024</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
     <t>OFFICE / DIVISION</t>
   </si>
   <si>
@@ -76,9 +72,6 @@
   </si>
   <si>
     <t>ACTUAL USER</t>
-  </si>
-  <si>
-    <t>ACTUAL USER as of 2024</t>
   </si>
   <si>
     <t>NATURE OF WORK</t>
@@ -115,6 +108,9 @@
   <si>
     <t>SOFTWARE 6
 AutoCad</t>
+  </si>
+  <si>
+    <t>Regional Office</t>
   </si>
 </sst>
 </file>
@@ -124,25 +120,28 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,6 +176,21 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -185,34 +199,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -245,52 +231,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -397,7 +393,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -458,209 +454,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DD475-5E14-4337-9226-6435395F9B0F}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
     <col min="11" max="22" width="13.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="32.85546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="32.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="27.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="26.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18" style="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5703125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="9.140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="25.5703125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="18.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="27.42578125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="35" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -675,19 +645,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
@@ -701,49 +671,37 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -755,40 +713,40 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -800,51 +758,9 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="21">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
@@ -854,20 +770,16 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>

--- a/laravel-backend/public/templates/denr.xlsx
+++ b/laravel-backend/public/templates/denr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\denr_inv\laravel-backend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2CE18B-6B39-45F9-B49F-6BD772963800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCACD653-1CEA-4AEF-BC37-9EDC7543CA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E54F799D-C3C5-4495-98D5-76E9EC028213}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E54F799D-C3C5-4495-98D5-76E9EC028213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
-  <si>
-    <t>PENRO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>SHELF LIFE</t>
   </si>
   <si>
-    <t>CENRO</t>
-  </si>
-  <si>
     <t>TYPE OF ICT EQUIPMENT</t>
   </si>
   <si>
@@ -43,10 +37,6 @@
   </si>
   <si>
     <t>BRAND</t>
-  </si>
-  <si>
-    <t>SPECIFICATIONS / DESCRIPTIONS
-(Processor, Graphics, RAM, Storage)</t>
   </si>
   <si>
     <t>RANGE CATEGORY 
@@ -65,9 +55,6 @@
     <t>ACCOUNTABLE PERSON</t>
   </si>
   <si>
-    <t>OFFICE / DIVISION</t>
-  </si>
-  <si>
     <t>STATUS OF EMPLOYMENT</t>
   </si>
   <si>
@@ -80,37 +67,49 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>RICT CODE</t>
-  </si>
-  <si>
-    <t>SOFTWARE  1
-OS</t>
-  </si>
-  <si>
-    <t>LICENSING MODEL</t>
-  </si>
-  <si>
-    <t>SOFTWARE  2
-MICROSOFT OFFICE</t>
-  </si>
-  <si>
-    <t>SOFTWARE 3
-ARCGIS</t>
-  </si>
-  <si>
-    <t>SOFTWARE 4
-ADOBE PDF</t>
-  </si>
-  <si>
-    <t>SOFTWARE 5
-Photoshop</t>
-  </si>
-  <si>
-    <t>SOFTWARE 6
-AutoCad</t>
-  </si>
-  <si>
-    <t>Regional Office</t>
+    <t>OFFICE/DIVISION</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESSOR
+For Desktop &amp; Laptop 
+(eg. i7-10700T)
+</t>
+  </si>
+  <si>
+    <t>INSTALLED MEMORY RAM SIZE
+(For Desktop &amp; Laptop)</t>
+  </si>
+  <si>
+    <t>INSTALLED GPU
+For Desktop &amp; Laptop
+(e.g. nvidia, shared graphics, etc.)</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>OPERATING SYSTEM VERSION
+(e.g. win7, win8, win9, win10, win11, etc.)</t>
+  </si>
+  <si>
+    <t>OFFICE PRODUCTIVITY</t>
+  </si>
+  <si>
+    <t>MICROSOFT OFFICE VERSION
+(e.g Enterprise, Standard, 365, etc.)</t>
+  </si>
+  <si>
+    <t>OFFICE PRODUCTIVITY VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE ENDPOINT PROTECTION
+(e.g. trendmicro, windows firewall,mcAfee, etc.) </t>
+  </si>
+  <si>
+    <t>COMPUTER NAME</t>
   </si>
 </sst>
 </file>
@@ -126,13 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -143,19 +135,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -248,38 +242,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,193 +574,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034DD475-5E14-4337-9226-6435395F9B0F}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="22" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="13.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="32.85546875" style="1" customWidth="1"/>
     <col min="24" max="24" width="32.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="27.42578125" style="1" customWidth="1"/>
     <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="4" t="s">
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="W1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
+    <row r="2" spans="1:30" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
